--- a/biology/Microbiologie/Negibacteria/Negibacteria.xlsx
+++ b/biology/Microbiologie/Negibacteria/Negibacteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Negibacteria est un sous-règne[1], dans le règne des bactéries. Le terme a été inventé par opposition à Posibacteria pour diviser en deux le groupe des eubactéries (ou « bactéries vraies »)[2],[3],[4] selon la constitution de leurs parois : à deux membranes pour les négibactéries, à une membrane pour les posibactéries. Negibacteria inclut globalement les bactéries à Gram négatif, d'où le nom de ce taxon.
-Didermata est un synonyme junior proposé une dizaine d'années plus tard par un autre auteur[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Negibacteria est un sous-règne, dans le règne des bactéries. Le terme a été inventé par opposition à Posibacteria pour diviser en deux le groupe des eubactéries (ou « bactéries vraies ») selon la constitution de leurs parois : à deux membranes pour les négibactéries, à une membrane pour les posibactéries. Negibacteria inclut globalement les bactéries à Gram négatif, d'où le nom de ce taxon.
+Didermata est un synonyme junior proposé une dizaine d'années plus tard par un autre auteur.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les négibactéries se caractérisent par une paroi à deux membranes[6] : une membrane plasmique et une membrane externe. Cette structure particulière peut être qualifiée de diderme (par référence au terme de Gupta) ou de bimembranée (par opposition avec unimembrané).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les négibactéries se caractérisent par une paroi à deux membranes : une membrane plasmique et une membrane externe. Cette structure particulière peut être qualifiée de diderme (par référence au terme de Gupta) ou de bimembranée (par opposition avec unimembrané).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord considérées comme paraphylétique et situées à la base de l'arbre de la vie[7],[6], les négibactéries sont aujourd'hui regardées comme un groupe monophylétique dérivant d'un souche posibactérienne[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord considérées comme paraphylétique et situées à la base de l'arbre de la vie les négibactéries sont aujourd'hui regardées comme un groupe monophylétique dérivant d'un souche posibactérienne.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification actuelle[8] de Cavalier-Smith Negibacteria est un sous-règne au sein du règne Bacteria, lui-même unique règne de l'empire Prokaryota. Le deuxième sous-règne bactérien est Unibacteria, un taxon qui réunit deux embranchements : Archaebacteria (les archébactéries) et Posibacteria qui a perdu son statut de sous-règne.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification actuelle de Cavalier-Smith Negibacteria est un sous-règne au sein du règne Bacteria, lui-même unique règne de l'empire Prokaryota. Le deuxième sous-règne bactérien est Unibacteria, un taxon qui réunit deux embranchements : Archaebacteria (les archébactéries) et Posibacteria qui a perdu son statut de sous-règne.
 Dans la théorie des trois domaines défendue par d'autres auteurs l'opposition négibactéries/unibactéries ne constituent pas la principale divergence au sein des procaryotes (bactéries au sens large). Pour eux le vivant serait divisible en trois domaines holophylétiques : Archaebacteria, Eubacteria (Posibacteria et Negibacteria) et Eukaryota.
 </t>
         </is>
